--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.013020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.013020.xlsx_with_dialog_acts.xlsx
@@ -975,12 +975,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1813,12 +1813,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2023,12 +2023,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2569,12 +2569,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4429,12 +4429,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4807,12 +4807,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5101,12 +5101,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5143,12 +5143,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5899,12 +5899,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5941,12 +5941,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6571,12 +6571,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6739,12 +6739,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6823,12 +6823,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7285,12 +7285,12 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7327,12 +7327,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8079,12 +8079,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8373,12 +8373,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9133,12 +9133,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9301,12 +9301,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9511,12 +9511,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9805,12 +9805,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9847,12 +9847,12 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9973,12 +9973,12 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10821,12 +10821,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11627,12 +11627,12 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11669,12 +11669,12 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12169,12 +12169,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13891,12 +13891,12 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14309,12 +14309,12 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14855,12 +14855,12 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15233,12 +15233,12 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15275,12 +15275,12 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15317,12 +15317,12 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15359,12 +15359,12 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15527,12 +15527,12 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16241,12 +16241,12 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16451,12 +16451,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16577,12 +16577,12 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16787,12 +16787,12 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
